--- a/dados/koalaparts_sp.xlsx
+++ b/dados/koalaparts_sp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:18121876#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:18121876#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:18121876#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:18121876#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:18121876#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:18121876#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -546,17 +578,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:18121876#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:18121876#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -571,17 +613,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:18121876#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:18121876#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -596,17 +644,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:18121876#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:18121876#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -621,17 +679,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:18121876#searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:18121876#searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -646,17 +714,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:18121876#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:18121876#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -671,17 +749,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:18121876#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:18121876#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -696,17 +780,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:18121876#searchVariation=MLB22569833&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:18121876#searchVariation=MLB22569833&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -721,17 +811,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:18121876#searchVariation=MLB35970528&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:18121876#searchVariation=MLB35970528&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -746,17 +842,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266425-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266425-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -771,17 +873,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:18121876#searchVariation=MLB27661251&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:18121876#searchVariation=MLB27661251&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -796,17 +904,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240567-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240567-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -821,17 +935,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729279087-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279087-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -846,17 +966,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729317737-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729317737-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -871,17 +1001,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253237-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-b-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253237-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-b-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -896,17 +1032,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729305037-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smar-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729305037-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smar-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -921,17 +1063,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655467572-fonte-carregador-automotivo-jfa-200a-storm-monovolt-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655467572-fonte-carregador-automotivo-jfa-200a-storm-monovolt-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -946,467 +1098,593 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729227679-fonte-e-carregador-bateria-bivolt-jfa-storm-60a-digital-cca-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729227679-fonte-e-carregador-bateria-bivolt-jfa-storm-60a-digital-cca-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>895.1</v>
+        <v>2455</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240725-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279081-jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 40a Digital Cca</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>447.54</v>
+        <v>895.1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729330467-fonte-e-carregador-bateria-bivolt-jfa-storm-40a-digital-cca-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240725-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 40a Digital Cca</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>823.49</v>
+        <v>447.54</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253229-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729330467-fonte-e-carregador-bateria-bivolt-jfa-storm-40a-digital-cca-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>796.35</v>
+        <v>823.49</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292265-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253229-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>482.69</v>
+        <v>796.35</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729343405-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292265-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2069</v>
+        <v>482.69</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266165-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729343405-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>454.15</v>
+        <v>2069</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655542960-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266165-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3609</v>
+        <v>454.15</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292005-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655542960-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Inversor Jfa 49046 Senoidal Off-grid Motorhome Caminhão 100</t>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1510</v>
+        <v>3609</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729304917-inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-100-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292005-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
+          <t>Inversor Jfa 49046 Senoidal Off-grid Motorhome Caminhão 100</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3609</v>
+        <v>1510</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729279095-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729304917-inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-100-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1534</v>
+        <v>3609</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240575-inversor-jfa-1000w-senoidal-puro-12v127v-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279095-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2069</v>
+        <v>1534</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292149-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240575-inversor-jfa-1000w-senoidal-puro-12v127v-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>681.83</v>
+        <v>1510</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655555980-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240649-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2455</v>
+        <v>2069</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729330295-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292149-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2455</v>
+        <v>681.83</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266215-inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655555980-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.90000000000001</v>
+        <v>2455</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765523015-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729330295-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>805.59</v>
+        <v>2455</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655482968-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266215-inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>405.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729343359-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3765523015-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
@@ -1417,121 +1695,279 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>895.1</v>
+        <v>805.59</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266223-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655482968-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>895.1</v>
+        <v>405.5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729317659-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729343359-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>454.15</v>
+        <v>45.9</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253367-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729317825-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>454.15</v>
+        <v>895.1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253387-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266223-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>895.1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729317659-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>454.15</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253367-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>454.15</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253387-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B47" t="n">
         <v>796.35</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292131-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbca65df8-7106-4e42-9747-a756610a68ca</t>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729305097-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>796.35</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292131-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
         </is>
       </c>
     </row>

--- a/dados/koalaparts_sp.xlsx
+++ b/dados/koalaparts_sp.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,15 +476,19 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>704.89</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -497,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:18121876#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:18121876#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -507,15 +511,19 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>693.7</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -528,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:18121876#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:18121876#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -538,14 +546,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>805.59</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -563,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:18121876#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:18121876#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -573,14 +581,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>422.93</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -598,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:18121876#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:18121876#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -608,15 +616,19 @@
           <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>405.5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -629,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:18121876#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:18121876#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -639,14 +651,14 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>493.42</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -664,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:18121876#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:18121876#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -674,14 +686,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>443.07</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -699,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:18121876#searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:18121876#searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -709,19 +721,15 @@
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>736.61</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -734,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:18121876#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:18121876#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -744,13 +752,13 @@
           <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>425.17</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -765,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:18121876#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:18121876#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -775,15 +783,19 @@
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>447.55</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -796,7 +808,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:18121876#searchVariation=MLB22569833&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:18121876#searchVariation=MLB22569833&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -806,13 +818,13 @@
           <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>1284</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -827,7 +839,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:18121876#searchVariation=MLB35970528&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:18121876#searchVariation=MLB35970528&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -837,13 +849,13 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>45.9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -858,7 +870,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266425-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266425-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -868,15 +880,19 @@
           <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>2088</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -889,7 +905,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:18121876#searchVariation=MLB27661251&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:18121876#searchVariation=MLB27661251&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -899,13 +915,13 @@
           <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 220v Jfa</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>2455</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -920,7 +936,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240567-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240567-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -930,13 +946,13 @@
           <t>Fonte Carregador Automotivo Jfa Storm Lite 40 Amperes Slim</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>352</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -951,7 +967,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729279087-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279087-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -961,14 +977,14 @@
           <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>422.93</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -986,7 +1002,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729317737-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729317737-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -996,15 +1012,19 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático B</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>693.7</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1017,7 +1037,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253237-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-b-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253237-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-b-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1027,15 +1047,19 @@
           <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smar</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>447.54</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1048,7 +1072,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729305037-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smar-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729305037-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smar-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1058,19 +1082,15 @@
           <t>Fonte Carregador Automotivo Jfa 200a Storm Monovolt 220v</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>736.61</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1083,7 +1103,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655467572-fonte-carregador-automotivo-jfa-200a-storm-monovolt-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655467572-fonte-carregador-automotivo-jfa-200a-storm-monovolt-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1093,14 +1113,14 @@
           <t>Fonte E Carregador Bateria Bivolt Jfa Storm 60a Digital Cca</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>443.07</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1118,25 +1138,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729227679-fonte-e-carregador-bateria-bivolt-jfa-storm-60a-digital-cca-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729227679-fonte-e-carregador-bateria-bivolt-jfa-storm-60a-digital-cca-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2455</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>895.1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1149,25 +1173,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729279081-jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240725-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 40a Digital Cca</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>447.54</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1180,25 +1208,29 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240725-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729330467-fonte-e-carregador-bateria-bivolt-jfa-storm-40a-digital-cca-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 40a Digital Cca</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>447.54</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>823.49</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1211,23 +1243,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729330467-fonte-e-carregador-bateria-bivolt-jfa-storm-40a-digital-cca-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253229-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>823.49</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>796.35</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1241,30 +1273,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253229-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292265-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>796.35</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>482.69</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1277,25 +1313,29 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292265-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729343405-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>482.69</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2455</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1303,30 +1343,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729343405-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279081-jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2069</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>454.15</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1339,23 +1383,23 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266165-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655542960-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>454.15</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3609</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1370,23 +1414,23 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655542960-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292005-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>3609</v>
-      </c>
-      <c r="C30" t="inlineStr">
+          <t>Inversor Jfa 49046 Senoidal Off-grid Motorhome Caminhão 100</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1510</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1401,23 +1445,23 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292005-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729304917-inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-100-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Inversor Jfa 49046 Senoidal Off-grid Motorhome Caminhão 100</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1510</v>
-      </c>
-      <c r="C31" t="inlineStr">
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3609</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1432,23 +1476,23 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729304917-inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-100-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279095-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>3609</v>
-      </c>
-      <c r="C32" t="inlineStr">
+          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1534</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1463,23 +1507,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729279095-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240575-inversor-jfa-1000w-senoidal-puro-12v127v-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1534</v>
-      </c>
-      <c r="C33" t="inlineStr">
+          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1510</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1494,23 +1538,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240575-inversor-jfa-1000w-senoidal-puro-12v127v-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240649-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1510</v>
-      </c>
-      <c r="C34" t="inlineStr">
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2069</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
@@ -1525,25 +1569,29 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240649-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292149-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2069</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>681.83</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1556,29 +1604,25 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292149-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655555980-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2069</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1591,7 +1635,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655555980-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266165-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1601,15 +1645,19 @@
           <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>2455</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1622,7 +1670,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729330295-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729330295-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1632,15 +1680,19 @@
           <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>2455</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1653,7 +1705,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266215-inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266215-inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1663,13 +1715,13 @@
           <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>69.90000000000001</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1684,7 +1736,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765523015-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3765523015-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1694,14 +1746,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>805.59</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1719,7 +1771,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655482968-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655482968-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1729,15 +1781,19 @@
           <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>405.5</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1750,7 +1806,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729343359-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729343359-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1760,13 +1816,13 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>45.9</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -1781,7 +1837,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729317825-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729317825-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1791,15 +1847,19 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>895.1</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1812,7 +1872,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266223-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266223-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1822,15 +1882,19 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>895.1</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1843,7 +1907,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729317659-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729317659-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1853,15 +1917,19 @@
           <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>454.15</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1874,7 +1942,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253367-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253367-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1884,15 +1952,19 @@
           <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>454.15</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1905,7 +1977,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253387-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253387-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1915,15 +1987,19 @@
           <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>796.35</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1936,7 +2012,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729305097-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729305097-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>
@@ -1946,15 +2022,19 @@
           <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>796.35</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1967,7 +2047,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292131-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53d1fc62-409a-4617-ac66-e0306b4ae921</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292131-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
         </is>
       </c>
     </row>

--- a/dados/koalaparts_sp.xlsx
+++ b/dados/koalaparts_sp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,20 +473,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>704.89</v>
+        <v>422.93</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,27 +501,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:18121876#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:18121876#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>693.7</v>
+        <v>493.42</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:18121876#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:18121876#searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>805.59</v>
+        <v>443.07</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -571,27 +571,27 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:18121876#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:18121876#searchVariation=MLB21320712&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>422.93</v>
+        <v>704.89</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -606,27 +606,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:18121876#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:18121876#searchVariation=MLB21392652&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>405.5</v>
+        <v>624.33</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -641,23 +641,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:18121876#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:18121876#searchVariation=MLB24834408&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>493.42</v>
+        <v>805.59</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -676,23 +676,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:18121876#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:18121876#searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>443.07</v>
+        <v>364.95</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:18121876#searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:18121876#searchVariation=MLB23456525&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
@@ -723,13 +723,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>736.61</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -742,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:18121876#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:18121876#searchVariation=MLB24006449&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
@@ -758,7 +762,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>425.17</v>
+        <v>382.66</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -773,7 +777,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:18121876#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:18121876#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
@@ -789,7 +793,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>447.55</v>
+        <v>402.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -808,25 +812,29 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:18121876#searchVariation=MLB22569833&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:18121876#searchVariation=MLB22569833&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1284</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>1817</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -839,7 +847,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:18121876#searchVariation=MLB35970528&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:18121876#searchVariation=MLB27661251&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
@@ -855,7 +863,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>45.9</v>
+        <v>41.31</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -870,29 +878,25 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266425-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266425-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2088</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -905,7 +909,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:18121876#searchVariation=MLB27661251&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:18121876#searchVariation=MLB35970528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
@@ -917,13 +921,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>2455</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -936,7 +944,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240567-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240567-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
@@ -952,7 +960,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>352</v>
+        <v>316.8</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -967,23 +975,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729279087-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279087-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 60a Digital Cca</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>422.93</v>
+        <v>443.07</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1002,27 +1010,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729317737-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729227679-fonte-e-carregador-bateria-bivolt-jfa-storm-60a-digital-cca-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático B</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Monovolt 220v</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>693.7</v>
+        <v>736.61</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1037,14 +1045,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253237-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-b-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655467572-fonte-carregador-automotivo-jfa-200a-storm-monovolt-220v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smar</t>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 40a Digital Cca</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1053,11 +1061,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>447.54</v>
+        <v>402.79</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1072,25 +1080,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729305037-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smar-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729330467-fonte-e-carregador-bateria-bivolt-jfa-storm-40a-digital-cca-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Monovolt 220v</t>
+          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>422.93</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1103,27 +1115,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655467572-fonte-carregador-automotivo-jfa-200a-storm-monovolt-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729317737-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 60a Digital Cca</t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>443.07</v>
+        <v>796.35</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1133,28 +1145,28 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729227679-fonte-e-carregador-bateria-bivolt-jfa-storm-60a-digital-cca-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292265-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>895.1</v>
+        <v>454.15</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1173,29 +1185,25 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240725-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655542960-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 40a Digital Cca</t>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>447.54</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>3609</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1208,29 +1216,25 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729330467-fonte-e-carregador-bateria-bivolt-jfa-storm-40a-digital-cca-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279095-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>823.49</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>1534</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1243,29 +1247,25 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253229-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240575-inversor-jfa-1000w-senoidal-puro-12v127v-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>796.35</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>1510</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1273,32 +1273,32 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292265-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240649-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>482.69</v>
+        <v>681.83</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729343405-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655555980-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
@@ -1348,23 +1348,23 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729279081-jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279081-jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>454.15</v>
+        <v>2455</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1383,25 +1383,29 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655542960-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729330295-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
+          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3609</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>2455</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1414,14 +1418,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292005-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266215-inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Inversor Jfa 49046 Senoidal Off-grid Motorhome Caminhão 100</t>
+          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1430,7 +1434,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1510</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1445,25 +1449,29 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729304917-inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-100-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3765523015-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3609</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>364.95</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1476,25 +1484,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729279095-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729343359-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1534</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1507,25 +1519,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240575-inversor-jfa-1000w-senoidal-puro-12v127v-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655482968-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>454.15</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1538,25 +1554,29 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240649-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253367-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2069</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>454.15</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1569,7 +1589,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292149-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253387-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
@@ -1585,11 +1605,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>681.83</v>
+        <v>796.35</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1604,25 +1624,29 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655555980-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729305097-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2069</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>796.35</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1635,419 +1659,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266165-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>2455</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729330295-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>2455</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266215-inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765523015-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655482968-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>405.5</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729343359-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729317825-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266223-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729317659-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>454.15</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253367-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>454.15</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253387-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>796.35</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729305097-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>796.35</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292131-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D162093bc-07f2-4f4f-96ea-c0e1a1bdefad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292131-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D444e6101-e107-41f5-a604-88bf10936601</t>
         </is>
       </c>
     </row>

--- a/dados/koalaparts_sp.xlsx
+++ b/dados/koalaparts_sp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,21 +493,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3573</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>435.62</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -517,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292005-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:18121876#wid=MLB4655507180&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -534,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>375.9</v>
+        <v>702.29</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -562,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:18121876#searchVariation=MLB23456525&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729305097-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>493.42</v>
+        <v>552.35</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -607,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:18121876#searchVariation=MLB21455208&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:18121876#wid=MLB3833480575&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,18 +628,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 200a Digital Cca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>829.76</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -648,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266425-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279209-fonte-e-carregador-bateria-bivolt-jfa-storm-200a-digital-cca-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -665,20 +673,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>634.4</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -693,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:18121876#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:18121876#wid=MLB3833526847&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -710,21 +718,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3573</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>456.36</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -734,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729279095-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:18121876#wid=MLB3680314367&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -751,20 +763,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>422.93</v>
+        <v>816.79</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -779,14 +791,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:18121876#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266189-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -796,25 +808,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smar</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>407.62</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -824,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729305037-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smar-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:18121876#wid=MLB3699064801&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -841,22 +853,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>2069</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -869,14 +877,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:18121876#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266165-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -886,18 +894,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
+          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1495</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>2455</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -910,14 +922,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240649-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:18121876#wid=MLB3813286783&amp;sid=search&amp;searchVariation=MLB27462343&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -927,20 +939,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Monovolt 220v</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>702.29</v>
+        <v>758.71</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -955,14 +967,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655555980-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655467572-fonte-carregador-automotivo-jfa-200a-storm-monovolt-220v-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -972,25 +984,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>422.93</v>
+        <v>829.76</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1000,14 +1012,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655456442-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:18121876#wid=MLB4655496158&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1017,22 +1029,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>3609</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1045,14 +1053,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:18121876#searchVariation=MLB24006449&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292005-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1062,20 +1070,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>624.33</v>
+        <v>447.55</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1090,14 +1098,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:18121876#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:18121876#wid=MLB4655534172&amp;sid=search&amp;searchVariation=MLB22569833&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1107,25 +1115,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>443.07</v>
+        <v>758.71</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1135,14 +1143,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:18121876#searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:18121876#wid=MLB4655533976&amp;sid=search&amp;searchVariation=MLB24006449&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1152,7 +1160,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Inversor Jfa 49046 Senoidal Off-grid Motorhome Caminhão 100</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1176,14 +1184,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729304917-inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-100-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240649-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1193,20 +1201,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>375.9</v>
+        <v>435.62</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1221,14 +1229,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729330351-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729317737-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1238,25 +1246,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>421</v>
+        <v>508.22</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1266,14 +1274,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655542960-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:18121876#wid=MLB3699087763&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1283,18 +1291,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+          <t>Fonte Carregador De Bateria Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1144</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>375.9</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1307,14 +1319,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:18121876#searchVariation=MLB35970528&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729330351-fonte-carregador-de-bateria-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1324,21 +1336,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2049</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>514.45</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1348,14 +1364,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292149-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:18121876#wid=MLB3699064787&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1365,20 +1381,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático B</t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>624.33</v>
+        <v>738.22</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1388,19 +1404,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253237-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-b-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292265-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1410,7 +1426,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
+          <t>Inversor Onda Senoidal Pura Jfa 2000W 12v 110v Pico 4000w</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1419,7 +1435,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1861</v>
+        <v>2088</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1438,14 +1454,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:18121876#searchVariation=MLB27661251&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:18121876#wid=MLB4655575922&amp;sid=search&amp;searchVariation=MLB27661251&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1455,22 +1471,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>447.45</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1478,19 +1490,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729343405-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3765523015-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1500,16 +1512,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>738.22</v>
+        <v>447.46</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1528,14 +1540,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292265-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729343405-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1545,22 +1557,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 60a Digital Cca</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>2069</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1573,14 +1581,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729227679-fonte-e-carregador-bateria-bivolt-jfa-storm-60a-digital-cca-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292149-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1590,20 +1598,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>402.79</v>
+        <v>2455</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1618,14 +1626,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:18121876#searchVariation=MLB22569833&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729330295-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1635,22 +1643,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
+          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2431</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>1298</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1663,14 +1667,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729330295-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:18121876#wid=MLB3813249565&amp;sid=search&amp;searchVariation=MLB36113529&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1680,22 +1684,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 40a Digital Cca</t>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>1614</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1708,14 +1708,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729330467-fonte-e-carregador-bateria-bivolt-jfa-storm-40a-digital-cca-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:18121876#wid=MLB3680288851&amp;sid=search&amp;searchVariation=MLB35970528&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1725,20 +1725,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2431</v>
+        <v>681.83</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1753,14 +1753,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729279081-jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729292131-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1770,18 +1770,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2069</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1794,14 +1798,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729266165-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253237-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-b-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1811,25 +1815,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>805.59</v>
+        <v>420.99</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1839,14 +1843,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253229-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253367-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1856,22 +1860,18 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>375.9</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>3609</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1884,14 +1884,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655469874-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279095-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1901,22 +1901,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Inversor Jfa 49046 Senoidal Off-grid Motorhome Caminhão 100</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>1510</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1929,14 +1925,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240725-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729304917-inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-100-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1946,16 +1942,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>499.45</v>
+        <v>829.76</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1974,14 +1970,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729240651-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240725-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1991,18 +1987,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+        <v>420.99</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2015,14 +2015,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765523015-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655542960-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2032,20 +2032,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>702.29</v>
+        <v>829.76</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2060,14 +2060,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729305097-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729279179-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2077,20 +2077,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>702.29</v>
+        <v>829.76</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2105,14 +2105,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729292131-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729266223-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2122,20 +2122,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>421</v>
+        <v>829.76</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2150,14 +2150,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253367-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3729317659-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2167,35 +2167,215 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>829.76</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253229-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>koalaparts_sp</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655469874-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>koalaparts_sp</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>514.45</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729240651-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>koalaparts_sp</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>FONTE 70A LITE</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>421</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3729253387-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D173c25b3-8cd8-4fc6-9976-641d95abfdcc</t>
+      <c r="E43" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3729253387-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>koalaparts_sp</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>702.29</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655555980-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D723a93c8-1657-44aa-bb13-bb7bcfe70499</t>
         </is>
       </c>
     </row>
